--- a/diaries/diary-chunqi-zhao.xlsx
+++ b/diaries/diary-chunqi-zhao.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhAvi1+06CF9GMOgxmYboKL0w3G8Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj8E/NGQIz88/VoFUx5GT/dvNk+BA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Your Overall Mood</t>
+  </si>
+  <si>
+    <t>5:00 PM - 7:50PM</t>
   </si>
   <si>
     <t>N/A</t>
@@ -88,6 +91,9 @@
     <t>Being familiar with game dev helped a lot.</t>
   </si>
   <si>
+    <t>11:00 AM - 1:00PM</t>
+  </si>
+  <si>
     <t>Do Pacman homework</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>Pretty good.</t>
   </si>
   <si>
+    <t>8:00 PM - 10:00PM</t>
+  </si>
+  <si>
     <t>Print out UML diagram for Runelite</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>Learning how to use gimp felt good.</t>
   </si>
   <si>
+    <t>1:00 PM - 2:00PM</t>
+  </si>
+  <si>
     <t>Stich up the printed UML diagram for Runelite</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
     <t>Frustrated.</t>
   </si>
   <si>
+    <t>3:30 PM - 4:30PM</t>
+  </si>
+  <si>
     <t>Thuc, Harry</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>Good.</t>
   </si>
   <si>
+    <t>3:30 PM - 5:00PM</t>
+  </si>
+  <si>
     <t>Final check on writeup, highlight on printed UML diagram</t>
   </si>
   <si>
@@ -178,6 +196,9 @@
     <t>Learning new things always good.</t>
   </si>
   <si>
+    <t>8:00PM - 4:00AM</t>
+  </si>
+  <si>
     <t>Choose 2 essential features on Runelite for write up</t>
   </si>
   <si>
@@ -202,6 +223,9 @@
     <t>Could be worse.</t>
   </si>
   <si>
+    <t>4:00 PM - 5:00PM</t>
+  </si>
+  <si>
     <t>Final check on writeup, push required files to repo</t>
   </si>
   <si>
@@ -229,9 +253,6 @@
     <t>Decent, tired</t>
   </si>
   <si>
-    <t>5:00 PM - 7:50PM</t>
-  </si>
-  <si>
     <t>Take midterm, and learn</t>
   </si>
   <si>
@@ -362,15 +383,95 @@
   </si>
   <si>
     <t>Tired</t>
+  </si>
+  <si>
+    <t>Learn about reading test cases</t>
+  </si>
+  <si>
+    <t>Read and comprehended a lot of JPacman test cases.</t>
+  </si>
+  <si>
+    <t>Originally I thought that test cases aren't very useful to look at for code comprehension purposes, but going through all the JPacman test cases with classmates tought me a lot about how JPacman works. All the test cases were also fairly simple to understant with my Computer Game Science background, and explaining to others solidified my understanding even more</t>
+  </si>
+  <si>
+    <t>Happy that reading test cases turned out useful</t>
+  </si>
+  <si>
+    <t>Solve Herbiboar issue in Runelite, submit pull request to Kaj for approval</t>
+  </si>
+  <si>
+    <t>Working fix for the Herbiboar issue implemented, pull request submitted to Kaj for approval</t>
+  </si>
+  <si>
+    <t>Got a lot of pointers from the Runelite Discord server, learned alot of new things about how runelite works with onChatMessage, and how all messages are stored and can be retrieved via client.getMessages(). Had no idea it was possible to search through the entire item database for the game for specific items directly in the development environment without launching the actual game. Hopefully Kaj accepts the pull request so my solution counts towards our homework</t>
+  </si>
+  <si>
+    <t>Extremely satisfied that I understood the code base, and the issue can be solved so quickly</t>
+  </si>
+  <si>
+    <t>8:00PM - 9:00AM</t>
+  </si>
+  <si>
+    <t>Submit pull request for my Herbiboar fix to Runelite</t>
+  </si>
+  <si>
+    <t>pull request submitted to Runelite</t>
+  </si>
+  <si>
+    <t>Nothing much to reflect on here, pretty much just submitted the pull request to Runelite, hopefully I get code reviewed soon though</t>
+  </si>
+  <si>
+    <t>Expectant?</t>
+  </si>
+  <si>
+    <t>Wrap up for the course</t>
+  </si>
+  <si>
+    <t>shared about my 2nd pull request experience since I'm the only one that did it, otherwise didn't learn much new as the git stuff I already knew</t>
+  </si>
+  <si>
+    <t>Was a fun quarter, definitely the most engaging class of the 3 this quarter. Discussions throughout the classes were all really interesting. Taught me a lot of new ways to read Java code with IntelliJ that defintely helped with my pull requests to Runelite. Was originally thinking about contributing to Runelite, and this course facilitated that perfectly.</t>
+  </si>
+  <si>
+    <t>Satisfied with the outcome of the course.</t>
+  </si>
+  <si>
+    <t>5:00PM - 3:00AM</t>
+  </si>
+  <si>
+    <t>Change pull request according to code review</t>
+  </si>
+  <si>
+    <t>Resolved all requested changes to the code, learned about Java Regex and pattern matching</t>
+  </si>
+  <si>
+    <t>Some of the requested changes made a lot of sense, like using regex and pattern matching to filter out the herb names instead of my replacing string with empty strings. Some requested changes were kind of meaningless to me, like inverting my if statements and having a continue statement. No matter what, I followed through with the requested changes. Pattern matching took the longest for me, as I had to learn it from scratch, and the fact that the regex he gave me was slightly wrong made things worse.</t>
+  </si>
+  <si>
+    <t>Glad I was able to figure out the magic of Pattern Matching.</t>
+  </si>
+  <si>
+    <t>5:00PM - 5:00AM</t>
+  </si>
+  <si>
+    <t>Add test cases for the pull request, finish up the 3 reports, complete and turn in diary</t>
+  </si>
+  <si>
+    <t>Added test case for regular Herbiboar event, test case for all the herb sack messages when using an open herb sack, and a test case to prove that the bug no longer exists. Report was also completed and submitted, diary well this is the last entry</t>
+  </si>
+  <si>
+    <t>Test cases were way harder to write compared to the actual feature, had to go through hell and back to figure out how to mock and stub everything that was needed. Finally ended up getting everything work with a ton of mocks and stubs, that the test case is barely readable, hopefully the test cases can satisfy whoever decides to review my pull request. The report was fairly straightforward. And here I am writing the reflection for this last diary entry. Hopefully this is enough.</t>
+  </si>
+  <si>
+    <t>Extremely happy that I am able to contribute to Runelite, also happy that this diary is the last thing that I'll be doing for this course and quarter even, as I won't be taking the final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -432,14 +533,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12.0"/>
-      <color rgb="FF006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -551,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -573,10 +674,10 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -597,28 +698,25 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,573 +1050,673 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10">
       <c r="A10" s="18">
         <v>43839.0</v>
       </c>
-      <c r="B10" s="19">
-        <v>0.7916666666666666</v>
+      <c r="B10" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="18">
         <v>43846.0</v>
       </c>
-      <c r="B11" s="19">
-        <v>0.75</v>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="18">
         <v>43852.0</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.4583333333333333</v>
+      <c r="B12" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="18">
         <v>43853.0</v>
       </c>
-      <c r="B13" s="19">
-        <v>0.75</v>
+      <c r="B13" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="18">
         <v>43857.0</v>
       </c>
-      <c r="B14" s="19">
-        <v>0.8333333333333334</v>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="18">
         <v>43859.0</v>
       </c>
-      <c r="B15" s="19">
-        <v>0.5416666666666666</v>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="18">
         <v>43859.0</v>
       </c>
-      <c r="B16" s="19">
-        <v>0.6458333333333334</v>
+      <c r="B16" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="18">
         <v>43860.0</v>
       </c>
-      <c r="B17" s="19">
-        <v>0.6458333333333334</v>
+      <c r="B17" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="18">
         <v>43860.0</v>
       </c>
-      <c r="B18" s="19">
-        <v>0.75</v>
+      <c r="B18" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="18">
         <v>43866.0</v>
       </c>
-      <c r="B19" s="19">
-        <v>0.8333333333333334</v>
+      <c r="B19" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="18">
         <v>43867.0</v>
       </c>
-      <c r="B20" s="19">
-        <v>0.5416666666666666</v>
+      <c r="B20" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="18">
         <v>43867.0</v>
       </c>
-      <c r="B21" s="19">
-        <v>0.6666666666666666</v>
+      <c r="B21" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="18">
         <v>43873.0</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="18">
         <v>43874.0</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="18">
         <v>43880.0</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="18">
         <v>43881.0</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="23">
         <v>43881.0</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+      <c r="B26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="23">
         <v>43885.0</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+      <c r="B27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="23">
         <v>43886.0</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+      <c r="B28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="23">
         <v>43887.0</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+      <c r="B29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="23">
         <v>43888.0</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+      <c r="B30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="23">
         <v>43890.0</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+      <c r="B31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="23">
         <v>43894.0</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
+      <c r="B32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23">
+        <v>43895.0</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="23">
+        <v>43895.0</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23">
+        <v>43898.0</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23">
+        <v>43902.0</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="23">
+        <v>43904.0</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="18">
+        <v>43906.0</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40" ht="14.25" customHeight="1"/>
     <row r="41" ht="14.25" customHeight="1"/>
